--- a/input/printers_inspect/Druckerliste_Inspect_20062023.xlsx
+++ b/input/printers_inspect/Druckerliste_Inspect_20062023.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$Q$200</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="352">
   <si>
     <t>Standort</t>
   </si>
@@ -1066,13 +1069,28 @@
   </si>
   <si>
     <t>PSTVA7601-S3</t>
+  </si>
+  <si>
+    <t>ZUER_ZUER_PDF</t>
+  </si>
+  <si>
+    <t>ZUER_ZUER_PERMIS</t>
+  </si>
+  <si>
+    <t>ZUER_ZUER_ANNEXE</t>
+  </si>
+  <si>
+    <t>ZUER_SZUE_PDF</t>
+  </si>
+  <si>
+    <t>True</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1084,6 +1102,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1106,14 +1132,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1343,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q199"/>
+  <dimension ref="A1:Q200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="D200" sqref="D200"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1545,7 +1574,7 @@
         <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M4" t="s">
         <v>34</v>
@@ -1639,7 +1668,7 @@
         <v>41</v>
       </c>
       <c r="K6" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M6" t="s">
         <v>34</v>
@@ -1780,7 +1809,7 @@
         <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M9" t="s">
         <v>34</v>
@@ -1921,7 +1950,7 @@
         <v>41</v>
       </c>
       <c r="K12" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M12" t="s">
         <v>34</v>
@@ -2062,7 +2091,7 @@
         <v>41</v>
       </c>
       <c r="K15" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M15" t="s">
         <v>34</v>
@@ -2203,7 +2232,7 @@
         <v>41</v>
       </c>
       <c r="K18" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M18" t="s">
         <v>34</v>
@@ -2438,7 +2467,7 @@
         <v>41</v>
       </c>
       <c r="K23" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M23" t="s">
         <v>34</v>
@@ -2579,7 +2608,7 @@
         <v>41</v>
       </c>
       <c r="K26" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M26" t="s">
         <v>34</v>
@@ -2720,7 +2749,7 @@
         <v>41</v>
       </c>
       <c r="K29" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M29" t="s">
         <v>34</v>
@@ -2861,7 +2890,7 @@
         <v>41</v>
       </c>
       <c r="K32" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M32" t="s">
         <v>34</v>
@@ -2955,7 +2984,7 @@
         <v>41</v>
       </c>
       <c r="K34" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M34" t="s">
         <v>34</v>
@@ -3002,7 +3031,7 @@
         <v>41</v>
       </c>
       <c r="K35" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M35" t="s">
         <v>34</v>
@@ -3049,7 +3078,7 @@
         <v>41</v>
       </c>
       <c r="K36" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M36" t="s">
         <v>34</v>
@@ -3096,7 +3125,7 @@
         <v>41</v>
       </c>
       <c r="K37" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M37" t="s">
         <v>34</v>
@@ -3143,7 +3172,7 @@
         <v>41</v>
       </c>
       <c r="K38" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M38" t="s">
         <v>34</v>
@@ -3190,7 +3219,7 @@
         <v>41</v>
       </c>
       <c r="K39" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M39" t="s">
         <v>34</v>
@@ -3237,7 +3266,7 @@
         <v>41</v>
       </c>
       <c r="K40" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M40" t="s">
         <v>34</v>
@@ -3284,7 +3313,7 @@
         <v>41</v>
       </c>
       <c r="K41" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M41" t="s">
         <v>34</v>
@@ -3331,7 +3360,7 @@
         <v>41</v>
       </c>
       <c r="K42" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M42" t="s">
         <v>34</v>
@@ -3378,7 +3407,7 @@
         <v>41</v>
       </c>
       <c r="K43" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M43" t="s">
         <v>34</v>
@@ -3425,7 +3454,7 @@
         <v>41</v>
       </c>
       <c r="K44" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M44" t="s">
         <v>34</v>
@@ -3472,7 +3501,7 @@
         <v>41</v>
       </c>
       <c r="K45" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M45" t="s">
         <v>34</v>
@@ -3519,7 +3548,7 @@
         <v>41</v>
       </c>
       <c r="K46" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M46" t="s">
         <v>34</v>
@@ -3566,7 +3595,7 @@
         <v>41</v>
       </c>
       <c r="K47" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M47" t="s">
         <v>34</v>
@@ -3613,7 +3642,7 @@
         <v>41</v>
       </c>
       <c r="K48" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M48" t="s">
         <v>34</v>
@@ -3660,7 +3689,7 @@
         <v>41</v>
       </c>
       <c r="K49" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M49" t="s">
         <v>34</v>
@@ -3707,7 +3736,7 @@
         <v>41</v>
       </c>
       <c r="K50" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M50" t="s">
         <v>34</v>
@@ -3754,7 +3783,7 @@
         <v>41</v>
       </c>
       <c r="K51" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M51" t="s">
         <v>34</v>
@@ -3848,7 +3877,7 @@
         <v>41</v>
       </c>
       <c r="K53" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M53" t="s">
         <v>34</v>
@@ -3989,7 +4018,7 @@
         <v>41</v>
       </c>
       <c r="K56" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M56" t="s">
         <v>34</v>
@@ -4130,7 +4159,7 @@
         <v>41</v>
       </c>
       <c r="K59" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M59" t="s">
         <v>34</v>
@@ -4271,7 +4300,7 @@
         <v>41</v>
       </c>
       <c r="K62" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M62" t="s">
         <v>34</v>
@@ -4412,7 +4441,7 @@
         <v>41</v>
       </c>
       <c r="K65" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M65" t="s">
         <v>34</v>
@@ -4553,7 +4582,7 @@
         <v>41</v>
       </c>
       <c r="K68" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M68" t="s">
         <v>34</v>
@@ -4694,7 +4723,7 @@
         <v>41</v>
       </c>
       <c r="K71" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M71" t="s">
         <v>34</v>
@@ -4835,7 +4864,7 @@
         <v>41</v>
       </c>
       <c r="K74" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M74" t="s">
         <v>34</v>
@@ -4976,7 +5005,7 @@
         <v>41</v>
       </c>
       <c r="K77" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M77" t="s">
         <v>34</v>
@@ -5117,7 +5146,7 @@
         <v>41</v>
       </c>
       <c r="K80" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M80" t="s">
         <v>34</v>
@@ -5258,7 +5287,7 @@
         <v>41</v>
       </c>
       <c r="K83" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M83" t="s">
         <v>34</v>
@@ -5352,7 +5381,7 @@
         <v>41</v>
       </c>
       <c r="K85" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M85" t="s">
         <v>34</v>
@@ -5399,7 +5428,7 @@
         <v>41</v>
       </c>
       <c r="K86" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M86" t="s">
         <v>34</v>
@@ -5446,7 +5475,7 @@
         <v>41</v>
       </c>
       <c r="K87" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M87" t="s">
         <v>34</v>
@@ -5493,7 +5522,7 @@
         <v>41</v>
       </c>
       <c r="K88" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M88" t="s">
         <v>34</v>
@@ -5540,7 +5569,7 @@
         <v>41</v>
       </c>
       <c r="K89" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M89" t="s">
         <v>34</v>
@@ -5587,7 +5616,7 @@
         <v>41</v>
       </c>
       <c r="K90" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M90" t="s">
         <v>34</v>
@@ -5634,7 +5663,7 @@
         <v>41</v>
       </c>
       <c r="K91" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M91" t="s">
         <v>34</v>
@@ -5681,7 +5710,7 @@
         <v>41</v>
       </c>
       <c r="K92" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M92" t="s">
         <v>34</v>
@@ -5728,7 +5757,7 @@
         <v>41</v>
       </c>
       <c r="K93" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M93" t="s">
         <v>34</v>
@@ -5775,7 +5804,7 @@
         <v>41</v>
       </c>
       <c r="K94" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M94" t="s">
         <v>34</v>
@@ -5822,7 +5851,7 @@
         <v>41</v>
       </c>
       <c r="K95" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M95" t="s">
         <v>34</v>
@@ -5869,7 +5898,7 @@
         <v>41</v>
       </c>
       <c r="K96" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M96" t="s">
         <v>34</v>
@@ -5916,7 +5945,7 @@
         <v>41</v>
       </c>
       <c r="K97" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M97" t="s">
         <v>34</v>
@@ -5963,7 +5992,7 @@
         <v>41</v>
       </c>
       <c r="K98" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M98" t="s">
         <v>34</v>
@@ -6010,7 +6039,7 @@
         <v>41</v>
       </c>
       <c r="K99" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M99" t="s">
         <v>34</v>
@@ -6057,7 +6086,7 @@
         <v>41</v>
       </c>
       <c r="K100" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M100" t="s">
         <v>34</v>
@@ -6104,7 +6133,7 @@
         <v>41</v>
       </c>
       <c r="K101" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M101" t="s">
         <v>34</v>
@@ -6151,7 +6180,7 @@
         <v>41</v>
       </c>
       <c r="K102" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M102" t="s">
         <v>34</v>
@@ -6292,7 +6321,7 @@
         <v>41</v>
       </c>
       <c r="K105" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M105" t="s">
         <v>34</v>
@@ -6433,7 +6462,7 @@
         <v>41</v>
       </c>
       <c r="K108" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M108" t="s">
         <v>34</v>
@@ -6574,7 +6603,7 @@
         <v>41</v>
       </c>
       <c r="K111" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M111" t="s">
         <v>34</v>
@@ -6715,7 +6744,7 @@
         <v>41</v>
       </c>
       <c r="K114" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M114" t="s">
         <v>34</v>
@@ -6762,7 +6791,7 @@
         <v>41</v>
       </c>
       <c r="K115" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M115" t="s">
         <v>34</v>
@@ -6809,7 +6838,7 @@
         <v>41</v>
       </c>
       <c r="K116" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M116" t="s">
         <v>34</v>
@@ -6856,7 +6885,7 @@
         <v>41</v>
       </c>
       <c r="K117" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M117" t="s">
         <v>34</v>
@@ -6997,7 +7026,7 @@
         <v>41</v>
       </c>
       <c r="K120" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M120" t="s">
         <v>34</v>
@@ -7044,7 +7073,7 @@
         <v>41</v>
       </c>
       <c r="K121" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M121" t="s">
         <v>34</v>
@@ -7091,7 +7120,7 @@
         <v>41</v>
       </c>
       <c r="K122" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M122" t="s">
         <v>34</v>
@@ -7185,7 +7214,7 @@
         <v>41</v>
       </c>
       <c r="K124" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M124" t="s">
         <v>34</v>
@@ -7279,7 +7308,7 @@
         <v>41</v>
       </c>
       <c r="K126" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M126" t="s">
         <v>34</v>
@@ -7326,7 +7355,7 @@
         <v>41</v>
       </c>
       <c r="K127" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M127" t="s">
         <v>34</v>
@@ -7373,7 +7402,7 @@
         <v>41</v>
       </c>
       <c r="K128" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M128" t="s">
         <v>34</v>
@@ -7420,7 +7449,7 @@
         <v>41</v>
       </c>
       <c r="K129" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M129" t="s">
         <v>34</v>
@@ -7467,7 +7496,7 @@
         <v>41</v>
       </c>
       <c r="K130" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M130" t="s">
         <v>34</v>
@@ -7514,7 +7543,7 @@
         <v>41</v>
       </c>
       <c r="K131" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M131" t="s">
         <v>34</v>
@@ -7655,7 +7684,7 @@
         <v>41</v>
       </c>
       <c r="K134" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M134" t="s">
         <v>34</v>
@@ -7796,7 +7825,7 @@
         <v>41</v>
       </c>
       <c r="K137" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M137" t="s">
         <v>34</v>
@@ -7937,7 +7966,7 @@
         <v>41</v>
       </c>
       <c r="K140" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M140" t="s">
         <v>34</v>
@@ -8078,7 +8107,7 @@
         <v>41</v>
       </c>
       <c r="K143" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M143" t="s">
         <v>34</v>
@@ -8219,7 +8248,7 @@
         <v>41</v>
       </c>
       <c r="K146" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M146" t="s">
         <v>34</v>
@@ -8266,7 +8295,7 @@
         <v>41</v>
       </c>
       <c r="K147" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M147" t="s">
         <v>34</v>
@@ -8313,7 +8342,7 @@
         <v>41</v>
       </c>
       <c r="K148" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M148" t="s">
         <v>34</v>
@@ -8360,7 +8389,7 @@
         <v>41</v>
       </c>
       <c r="K149" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M149" t="s">
         <v>34</v>
@@ -8407,7 +8436,7 @@
         <v>41</v>
       </c>
       <c r="K150" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M150" t="s">
         <v>34</v>
@@ -8454,7 +8483,7 @@
         <v>41</v>
       </c>
       <c r="K151" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M151" t="s">
         <v>34</v>
@@ -8501,7 +8530,7 @@
         <v>41</v>
       </c>
       <c r="K152" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M152" t="s">
         <v>34</v>
@@ -8548,7 +8577,7 @@
         <v>41</v>
       </c>
       <c r="K153" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M153" t="s">
         <v>34</v>
@@ -8642,7 +8671,7 @@
         <v>41</v>
       </c>
       <c r="K155" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M155" t="s">
         <v>34</v>
@@ -8736,7 +8765,7 @@
         <v>41</v>
       </c>
       <c r="K157" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M157" t="s">
         <v>34</v>
@@ -8877,7 +8906,7 @@
         <v>41</v>
       </c>
       <c r="K160" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M160" t="s">
         <v>34</v>
@@ -9018,7 +9047,7 @@
         <v>41</v>
       </c>
       <c r="K163" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M163" t="s">
         <v>34</v>
@@ -9159,7 +9188,7 @@
         <v>41</v>
       </c>
       <c r="K166" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M166" t="s">
         <v>34</v>
@@ -9300,7 +9329,7 @@
         <v>41</v>
       </c>
       <c r="K169" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M169" t="s">
         <v>34</v>
@@ -9347,7 +9376,7 @@
         <v>41</v>
       </c>
       <c r="K170" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M170" t="s">
         <v>34</v>
@@ -9394,7 +9423,7 @@
         <v>41</v>
       </c>
       <c r="K171" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M171" t="s">
         <v>34</v>
@@ -9441,7 +9470,7 @@
         <v>41</v>
       </c>
       <c r="K172" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M172" t="s">
         <v>34</v>
@@ -9488,7 +9517,7 @@
         <v>41</v>
       </c>
       <c r="K173" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M173" t="s">
         <v>34</v>
@@ -9535,7 +9564,7 @@
         <v>41</v>
       </c>
       <c r="K174" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M174" t="s">
         <v>34</v>
@@ -9582,7 +9611,7 @@
         <v>41</v>
       </c>
       <c r="K175" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M175" t="s">
         <v>34</v>
@@ -9629,7 +9658,7 @@
         <v>41</v>
       </c>
       <c r="K176" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M176" t="s">
         <v>34</v>
@@ -9676,7 +9705,7 @@
         <v>41</v>
       </c>
       <c r="K177" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M177" t="s">
         <v>34</v>
@@ -9723,7 +9752,7 @@
         <v>41</v>
       </c>
       <c r="K178" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M178" t="s">
         <v>34</v>
@@ -9864,7 +9893,7 @@
         <v>41</v>
       </c>
       <c r="K181" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M181" t="s">
         <v>34</v>
@@ -10005,7 +10034,7 @@
         <v>41</v>
       </c>
       <c r="K184" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M184" t="s">
         <v>34</v>
@@ -10146,7 +10175,7 @@
         <v>41</v>
       </c>
       <c r="K187" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M187" t="s">
         <v>34</v>
@@ -10287,7 +10316,7 @@
         <v>41</v>
       </c>
       <c r="K190" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M190" t="s">
         <v>34</v>
@@ -10428,7 +10457,7 @@
         <v>41</v>
       </c>
       <c r="K193" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M193" t="s">
         <v>34</v>
@@ -10475,7 +10504,7 @@
         <v>41</v>
       </c>
       <c r="K194" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M194" t="s">
         <v>34</v>
@@ -10522,7 +10551,7 @@
         <v>41</v>
       </c>
       <c r="K195" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M195" t="s">
         <v>34</v>
@@ -10569,7 +10598,7 @@
         <v>41</v>
       </c>
       <c r="K196" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M196" t="s">
         <v>34</v>
@@ -10591,7 +10620,7 @@
       <c r="A197" t="s">
         <v>301</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D197" t="s">
@@ -10609,11 +10638,14 @@
       <c r="H197" t="s">
         <v>343</v>
       </c>
+      <c r="I197" t="s">
+        <v>347</v>
+      </c>
       <c r="J197" t="s">
         <v>41</v>
       </c>
       <c r="K197" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M197" t="s">
         <v>339</v>
@@ -10653,6 +10685,9 @@
       <c r="H198" t="s">
         <v>343</v>
       </c>
+      <c r="I198" t="s">
+        <v>348</v>
+      </c>
       <c r="J198" t="s">
         <v>24</v>
       </c>
@@ -10697,6 +10732,9 @@
       <c r="H199" t="s">
         <v>343</v>
       </c>
+      <c r="I199" t="s">
+        <v>349</v>
+      </c>
       <c r="J199" t="s">
         <v>24</v>
       </c>
@@ -10719,8 +10757,45 @@
         <v>43</v>
       </c>
     </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>301</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D200" t="s">
+        <v>343</v>
+      </c>
+      <c r="E200" t="s">
+        <v>37</v>
+      </c>
+      <c r="F200" t="s">
+        <v>344</v>
+      </c>
+      <c r="G200" t="s">
+        <v>338</v>
+      </c>
+      <c r="H200" t="s">
+        <v>343</v>
+      </c>
+      <c r="I200" t="s">
+        <v>350</v>
+      </c>
+      <c r="J200" t="s">
+        <v>41</v>
+      </c>
+      <c r="K200" t="s">
+        <v>351</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:Q200"/>
+  <hyperlinks>
+    <hyperlink ref="C197" r:id="rId1"/>
+    <hyperlink ref="C200" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>